--- a/stc-util/Geradores de Incoming/MASTERCARD/FeeMastercard.xlsx
+++ b/stc-util/Geradores de Incoming/MASTERCARD/FeeMastercard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\Documents\Manuel\Projetos\STC\Geradores de Incoming\MASTERCARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\git\mhj-util\stc-util\Geradores de Incoming\MASTERCARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1130,19 +1130,19 @@
     <t>cadastro razao fee</t>
   </si>
   <si>
-    <t>010419</t>
-  </si>
-  <si>
-    <t>20190417</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>05103246259000000006300</t>
-  </si>
-  <si>
-    <t>0000018</t>
+    <t>20190605</t>
+  </si>
+  <si>
+    <t>010605</t>
+  </si>
+  <si>
+    <t>65502599080000436898944</t>
+  </si>
+  <si>
+    <t>0000022</t>
   </si>
 </sst>
 </file>
@@ -2542,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D104" sqref="D102:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B14" s="23" t="str">
         <f>B107</f>
-        <v>20190417</v>
+        <v>20190605</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B15" s="24" t="str">
         <f>B112</f>
-        <v>0000018</v>
+        <v>0000022</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>B107</f>
-        <v>20190417</v>
+        <v>20190605</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B19" s="25" t="str">
         <f>B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">001-FEE COLLECTION              20190417000001820190417080000                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </v>
+        <v xml:space="preserve">001-FEE COLLECTION              20190605000002220190605080000                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B40" s="80" t="str">
         <f>B109</f>
-        <v>05103246259000000006300</v>
+        <v>65502599080000436898944</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B53" s="49" t="str">
         <f>B113</f>
-        <v>010419</v>
+        <v>010605</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="2"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B63" s="49" t="str">
         <f>B113</f>
-        <v>010419</v>
+        <v>010605</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="2"/>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="B92" s="86" t="str">
         <f>CONCATENATE(B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63,B64,B65,B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B84,B85,B86,B87,B88,B89,B90,B91)</f>
-        <v xml:space="preserve">0100251507670203491150000101010000000010000000000010000000010020190017002002000100000000100000000000100005103246259000000006300000000000010000000000100000000000100000100000001000000000000001mome local EC                                                                                      001001ciclo vida trans00000001mensagem 100 caracteres                                                                             01041900000000001000000000010000000001000000000010000000000000000000010010010010419montante imposto 60 caracteres                              00000000000000000001expoentes moedas 60 caracteres                              000001atividade comercial 29 carac dados liquidacao 67 caracteres                                     indicador liquidacao 30 caractinformacoes consulta EC 57 caracteres                    dados descricao alternativa EC 201 caracteres                                                                                                                                                            nome unico titular 30 caracterrazao social empresa 30 caract000000000000001url EC 255 caracteres                                                                                                                                                                                                                                          Dados da Descricao Alternativa EC 2 201 caracteres                                                                                                                                                       Dados Telefonicos Ponto Interacao (POI) 0000001111000000100001Dados Apresentacao Inicial Cobrança Tarifas 0 110 caracteres                                                  Dados Devolucao Primeiro Chargeback Cobranca Tarifas 127 caracteres                                                            Dados Segunda Apresentacao Reapresentacao Cobranca Tarifas 127 caracteres                                                      Identificadores Rastreamento Casos Teste 165 caracteres                                                                                                              Dados Propriedade Membro a Membro 999 carcateres                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </v>
+        <v xml:space="preserve">0100251507670203491150000101010000000010000000000010000000010020190017002002000100000000100000000000100065502599080000436898944000000000010000000000100000000000100000100000001000000000000001mome local EC                                                                                      001001ciclo vida trans00000001mensagem 100 caracteres                                                                             01060500000000001000000000010000000001000000000010000000000000000000010010010010605montante imposto 60 caracteres                              00000000000000000001expoentes moedas 60 caracteres                              000001atividade comercial 29 carac dados liquidacao 67 caracteres                                     indicador liquidacao 30 caractinformacoes consulta EC 57 caracteres                    dados descricao alternativa EC 201 caracteres                                                                                                                                                            nome unico titular 30 caracterrazao social empresa 30 caract000000000000001url EC 255 caracteres                                                                                                                                                                                                                                          Dados da Descricao Alternativa EC 2 201 caracteres                                                                                                                                                       Dados Telefonicos Ponto Interacao (POI) 0000001111000000100001Dados Apresentacao Inicial Cobrança Tarifas 0 110 caracteres                                                  Dados Devolucao Primeiro Chargeback Cobranca Tarifas 127 caracteres                                                            Dados Segunda Apresentacao Reapresentacao Cobranca Tarifas 127 caracteres                                                      Identificadores Rastreamento Casos Teste 165 caracteres                                                                                                              Dados Propriedade Membro a Membro 999 carcateres                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </v>
       </c>
       <c r="C92" s="1">
         <f>LEN(B92)</f>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D102" t="str">
         <f>CONCATENATE(B19)</f>
-        <v xml:space="preserve">001-FEE COLLECTION              20190417000001820190417080000                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </v>
+        <v xml:space="preserve">001-FEE COLLECTION              20190605000002220190605080000                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="D103" t="str">
         <f>CONCATENATE(B92)</f>
-        <v xml:space="preserve">0100251507670203491150000101010000000010000000000010000000010020190017002002000100000000100000000000100005103246259000000006300000000000010000000000100000000000100000100000001000000000000001mome local EC                                                                                      001001ciclo vida trans00000001mensagem 100 caracteres                                                                             01041900000000001000000000010000000001000000000010000000000000000000010010010010419montante imposto 60 caracteres                              00000000000000000001expoentes moedas 60 caracteres                              000001atividade comercial 29 carac dados liquidacao 67 caracteres                                     indicador liquidacao 30 caractinformacoes consulta EC 57 caracteres                    dados descricao alternativa EC 201 caracteres                                                                                                                                                            nome unico titular 30 caracterrazao social empresa 30 caract000000000000001url EC 255 caracteres                                                                                                                                                                                                                                          Dados da Descricao Alternativa EC 2 201 caracteres                                                                                                                                                       Dados Telefonicos Ponto Interacao (POI) 0000001111000000100001Dados Apresentacao Inicial Cobrança Tarifas 0 110 caracteres                                                  Dados Devolucao Primeiro Chargeback Cobranca Tarifas 127 caracteres                                                            Dados Segunda Apresentacao Reapresentacao Cobranca Tarifas 127 caracteres                                                      Identificadores Rastreamento Casos Teste 165 caracteres                                                                                                              Dados Propriedade Membro a Membro 999 carcateres                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </v>
+        <v xml:space="preserve">0100251507670203491150000101010000000010000000000010000000010020190017002002000100000000100000000000100065502599080000436898944000000000010000000000100000000000100000100000001000000000000001mome local EC                                                                                      001001ciclo vida trans00000001mensagem 100 caracteres                                                                             01060500000000001000000000010000000001000000000010000000000000000000010010010010605montante imposto 60 caracteres                              00000000000000000001expoentes moedas 60 caracteres                              000001atividade comercial 29 carac dados liquidacao 67 caracteres                                     indicador liquidacao 30 caractinformacoes consulta EC 57 caracteres                    dados descricao alternativa EC 201 caracteres                                                                                                                                                            nome unico titular 30 caracterrazao social empresa 30 caract000000000000001url EC 255 caracteres                                                                                                                                                                                                                                          Dados da Descricao Alternativa EC 2 201 caracteres                                                                                                                                                       Dados Telefonicos Ponto Interacao (POI) 0000001111000000100001Dados Apresentacao Inicial Cobrança Tarifas 0 110 caracteres                                                  Dados Devolucao Primeiro Chargeback Cobranca Tarifas 127 caracteres                                                            Dados Segunda Apresentacao Reapresentacao Cobranca Tarifas 127 caracteres                                                      Identificadores Rastreamento Casos Teste 165 caracteres                                                                                                              Dados Propriedade Membro a Membro 999 carcateres                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
         <v>360</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C113" s="1">
         <f t="shared" si="12"/>
@@ -5587,7 +5587,7 @@
         <v>366</v>
       </c>
       <c r="B115" s="90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C115" s="1">
         <f t="shared" si="12"/>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="92" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
